--- a/biology/Zoologie/Calandrite_bergeronnette/Calandrite_bergeronnette.xlsx
+++ b/biology/Zoologie/Calandrite_bergeronnette/Calandrite_bergeronnette.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stigmatura budytoides
-Le Calandrite bergeronnette (Stigmatura budytoides) est une espèce de passereaux de la famille des Tyrannidae[1],[2].
+Le Calandrite bergeronnette (Stigmatura budytoides) est une espèce de passereaux de la famille des Tyrannidae,.
 </t>
         </is>
       </c>
@@ -512,14 +524,16 @@
           <t>Systématique et distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau est représenté par quatre sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau est représenté par quatre sous-espèces selon la classification de référence du Congrès ornithologique international  (version 9.1, 2019) :
 Stigmatura budytoides budytoides (d'Orbigny &amp; Frédéric de Lafresnaye, 1837) : sud de la Bolivie (du département de Cochabamba à celui de Tarija) ;
 Stigmatura budytoides inzonata Wetmore &amp; Peters, JL, 1923 : du sud-est de la Bolivie à l'ouest du Paraguay et au nord de l'Argentine ;
 Stigmatura budytoides flavocinerea (Burmeister, 1861) : centre de l'Argentine ;
-Stigmatura budytoides gracilis Zimmer, JT, 1955 : nord-est du Brésil (État du Pernambouc et nord de celui de Bahia)[1],[2],[4],[5].
-Certaines bases de données, comme Avibase et Tree of Life, considèrent Stigmatura budytoides gracilis comme une espèce à part entière, sous le nom de Calandrite du Pernambouc (Stigmatura gracilis), en raison de leur éloignement géographique et des différences entre leurs biomes respectifs[4],[6].
+Stigmatura budytoides gracilis Zimmer, JT, 1955 : nord-est du Brésil (État du Pernambouc et nord de celui de Bahia).
+Certaines bases de données, comme Avibase et Tree of Life, considèrent Stigmatura budytoides gracilis comme une espèce à part entière, sous le nom de Calandrite du Pernambouc (Stigmatura gracilis), en raison de leur éloignement géographique et des différences entre leurs biomes respectifs,.
 </t>
         </is>
       </c>
